--- a/public/assets/excel/sample_accommodations.xlsx
+++ b/public/assets/excel/sample_accommodations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TOMSHER\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE5D536-ADBB-4122-9325-C7AD91C7884B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB5559B-90AD-4C90-A117-89265111E503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
-  <si>
-    <t>hotel_name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>contact_number</t>
   </si>
@@ -61,9 +58,6 @@
     <t>contact_phone_2</t>
   </si>
   <si>
-    <t>Hotel Sunshine</t>
-  </si>
-  <si>
     <t>1234567890</t>
   </si>
   <si>
@@ -82,25 +76,16 @@
     <t>8765432109</t>
   </si>
   <si>
-    <t>Palm Resort</t>
-  </si>
-  <si>
-    <t>1122334455</t>
-  </si>
-  <si>
-    <t>Abu Dhabi</t>
-  </si>
-  <si>
-    <t>Ali Khan</t>
-  </si>
-  <si>
-    <t>9988776655</t>
-  </si>
-  <si>
-    <t>Sara Lee</t>
-  </si>
-  <si>
-    <t>8877665544</t>
+    <t>hotel_name_en</t>
+  </si>
+  <si>
+    <t>hotel_name_ar</t>
+  </si>
+  <si>
+    <t>Address Sky View</t>
+  </si>
+  <si>
+    <t>عنوان سكاي فيو</t>
   </si>
 </sst>
 </file>
@@ -144,10 +129,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,151 +434,116 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="19.109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="15.77734375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="15.44140625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="19.88671875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="20.88671875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="21.6640625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="20.109375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="22.109375" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="25.77734375" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" customWidth="1"/>
+    <col min="7" max="7" width="19.109375" customWidth="1"/>
+    <col min="8" max="8" width="15.77734375" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" customWidth="1"/>
+    <col min="10" max="10" width="19.88671875" customWidth="1"/>
+    <col min="11" max="11" width="20.88671875" customWidth="1"/>
+    <col min="12" max="12" width="21.6640625" customWidth="1"/>
+    <col min="13" max="13" width="20.109375" customWidth="1"/>
+    <col min="14" max="14" width="22.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="E2">
+        <v>101</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>102</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>107</v>
+      </c>
+      <c r="J2">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="L2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="2">
-        <v>101</v>
-      </c>
-      <c r="E2" s="2">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2">
-        <v>102</v>
-      </c>
-      <c r="G2" s="2">
-        <v>5</v>
-      </c>
-      <c r="H2" s="2">
-        <v>107</v>
-      </c>
-      <c r="I2" s="2">
-        <v>20</v>
-      </c>
-      <c r="J2" s="2" t="s">
+      <c r="M2" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="N2" t="s">
         <v>17</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="2">
-        <v>102</v>
-      </c>
-      <c r="E3" s="2">
-        <v>15</v>
-      </c>
-      <c r="F3" s="2">
-        <v>103</v>
-      </c>
-      <c r="G3" s="2">
-        <v>10</v>
-      </c>
-      <c r="H3" s="2">
-        <v>105</v>
-      </c>
-      <c r="I3" s="2">
-        <v>3</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
